--- a/Devesh_AzentioULSFramework_ExcelTest/Test-data/ULS_TestDataForTesting.xlsx
+++ b/Devesh_AzentioULSFramework_ExcelTest/Test-data/ULS_TestDataForTesting.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25915"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26219"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB39624F-7B83-4769-B8B6-AD3A0500161C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2487BB82-F6E3-479E-A483-6AFB697F7619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CovenantMasterTestData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="265">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -610,7 +610,7 @@
     <t>AT_PMR_02_D1</t>
   </si>
   <si>
-    <t>productCode9</t>
+    <t>productCode2</t>
   </si>
   <si>
     <t>pd2</t>
@@ -631,6 +631,15 @@
     <t>Successfully</t>
   </si>
   <si>
+    <t>Acode01</t>
+  </si>
+  <si>
+    <t>Adesc01</t>
+  </si>
+  <si>
+    <t>Admcode01</t>
+  </si>
+  <si>
     <t>PRODUCT_MST</t>
   </si>
   <si>
@@ -643,13 +652,13 @@
     <t>Lending</t>
   </si>
   <si>
-    <t>productCode6</t>
-  </si>
-  <si>
-    <t>pd3</t>
-  </si>
-  <si>
-    <t>dmCode3</t>
+    <t>Bcode01</t>
+  </si>
+  <si>
+    <t>Bdesc01</t>
+  </si>
+  <si>
+    <t>Bdmcode01</t>
   </si>
   <si>
     <t>AT-PMR-T005</t>
@@ -661,13 +670,13 @@
     <t>OVERDRAFT</t>
   </si>
   <si>
-    <t>productCode7</t>
-  </si>
-  <si>
-    <t>pd4</t>
-  </si>
-  <si>
-    <t>dmCode4</t>
+    <t>Ccode01</t>
+  </si>
+  <si>
+    <t>Cdesc01</t>
+  </si>
+  <si>
+    <t>Cdmcode01</t>
   </si>
   <si>
     <t>AT-PMR-T006</t>
@@ -676,13 +685,13 @@
     <t>AT_PMR_06_D1</t>
   </si>
   <si>
-    <t>pCode01</t>
-  </si>
-  <si>
-    <t>pdesc01</t>
-  </si>
-  <si>
-    <t>dmCode01</t>
+    <t>Dcode01</t>
+  </si>
+  <si>
+    <t>Ddesc01</t>
+  </si>
+  <si>
+    <t>Ddmcode01</t>
   </si>
   <si>
     <t>modifypdesc01</t>
@@ -806,12 +815,25 @@
   </si>
   <si>
     <t>in01589</t>
+  </si>
+  <si>
+    <t>7551</t>
+  </si>
+  <si>
+    <t>7553</t>
+  </si>
+  <si>
+    <t>7554</t>
+  </si>
+  <si>
+    <t>7555</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -1051,7 +1073,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1102,6 +1124,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1425,7 +1453,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="15" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -2013,15 +2041,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B519399-9CAC-4187-AE88-B2808089E7C2}">
   <dimension ref="A1:AC14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="29" width="19" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="4" max="29" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -2805,7 +2833,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="21" width="17.7109375" customWidth="1"/>
+    <col min="1" max="21" customWidth="true" width="17.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -3043,13 +3071,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3532707D-5DB2-404E-BC90-E36DC23F339C}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection sqref="A1:S1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="19" width="20.7109375" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.61328125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.62890625" collapsed="true"/>
+    <col min="5" max="19" customWidth="true" width="20.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -3177,7 +3206,7 @@
       <c r="J3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="K3" s="13"/>
+      <c r="K3" s="12"/>
       <c r="L3" s="16" t="s">
         <v>195</v>
       </c>
@@ -3197,11 +3226,11 @@
       <c r="B4" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="17">
-        <v>6983</v>
+      <c r="C4" s="17" t="s">
+        <v>263</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>198</v>
+        <v>53</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>185</v>
@@ -3209,14 +3238,14 @@
       <c r="F4" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>194</v>
+      <c r="G4" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>201</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>87</v>
@@ -3224,10 +3253,14 @@
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
+        <v>202</v>
+      </c>
+      <c r="N4" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="51" t="s">
+        <v>23</v>
+      </c>
       <c r="P4" s="15"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
@@ -3236,31 +3269,31 @@
     </row>
     <row r="5" spans="1:20" ht="15.75">
       <c r="A5" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C5" s="17">
-        <v>7001</v>
+        <v>204</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>264</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>53</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>205</v>
+      <c r="G5" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="I5" s="46" t="s">
+        <v>208</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>87</v>
@@ -3268,10 +3301,14 @@
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
+        <v>202</v>
+      </c>
+      <c r="N5" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="P5" s="15"/>
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
@@ -3280,10 +3317,10 @@
     </row>
     <row r="6" spans="1:20" ht="15.75">
       <c r="A6" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C6" s="17">
         <v>7000</v>
@@ -3292,19 +3329,19 @@
         <v>53</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>211</v>
+      <c r="G6" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="H6" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>214</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>87</v>
@@ -3312,10 +3349,14 @@
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="14"/>
+        <v>202</v>
+      </c>
+      <c r="N6" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="P6" s="15"/>
       <c r="Q6" s="13"/>
       <c r="R6" s="13"/>
@@ -3324,10 +3365,10 @@
     </row>
     <row r="7" spans="1:20" ht="15.75">
       <c r="A7" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
@@ -3337,14 +3378,14 @@
       <c r="F7" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>216</v>
+      <c r="G7" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>219</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>87</v>
@@ -3352,7 +3393,7 @@
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="19" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="N7" s="12" t="s">
         <v>87</v>
@@ -3364,10 +3405,10 @@
         <v>185</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="S7" s="12" t="s">
         <v>87</v>
@@ -3376,10 +3417,10 @@
     </row>
     <row r="8" spans="1:20" ht="15.75">
       <c r="A8" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
@@ -3390,11 +3431,11 @@
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
       <c r="K8" s="12" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L8" s="13"/>
       <c r="M8" s="19" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="N8" s="12" t="s">
         <v>87</v>
@@ -3406,10 +3447,10 @@
         <v>185</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="S8" s="12" t="s">
         <v>87</v>
@@ -3418,24 +3459,24 @@
     </row>
     <row r="9" spans="1:20" ht="15.75">
       <c r="A9" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
       <c r="E9" s="11" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>186</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I9" s="20">
         <v>123</v>
@@ -3458,10 +3499,10 @@
     </row>
     <row r="10" spans="1:20" ht="15.75">
       <c r="A10" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
@@ -3472,11 +3513,11 @@
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="12" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L10" s="13"/>
       <c r="M10" s="19" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="N10" s="12" t="s">
         <v>87</v>
@@ -3485,13 +3526,13 @@
         <v>87</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="S10" s="12" t="s">
         <v>87</v>
@@ -3500,10 +3541,10 @@
     </row>
     <row r="11" spans="1:20" ht="15.75">
       <c r="A11" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
@@ -3514,11 +3555,11 @@
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="12" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L11" s="13"/>
       <c r="M11" s="19" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="N11" s="12" t="s">
         <v>87</v>
@@ -3527,13 +3568,13 @@
         <v>87</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="R11" s="12" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="S11" s="12" t="s">
         <v>87</v>
@@ -3542,10 +3583,10 @@
     </row>
     <row r="12" spans="1:20" ht="15.75">
       <c r="A12" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
@@ -3556,13 +3597,13 @@
         <v>186</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="J12" s="20" t="s">
         <v>87</v>
@@ -3580,17 +3621,17 @@
     </row>
     <row r="13" spans="1:20" ht="15.75">
       <c r="A13" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="20" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
@@ -3609,6 +3650,14 @@
       <c r="T13" s="21"/>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3" xr:uid="{2E0D52F6-F6B8-4F51-83B0-0EE17C017F89}">
+      <formula1>"Deposits,Lending,OVERDRAFT,Trade,Treasury"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3" xr:uid="{EA0BF6F8-039A-41A7-9142-D56258018C99}">
+      <formula1>"Retail,Corporate"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3625,68 +3674,68 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="46" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="47" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="47" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" s="48" t="s">
         <v>253</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>254</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="47" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="47" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
